--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按登记注册类型分限额以上零售业企业商品进口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按登记注册类型分限额以上零售业企业商品进口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1169 +598,1091 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>30.58604</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>281.87137</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2.99054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>832.76037</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>8.317119999999999</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>47.74375</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.08248999999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>113.01603</v>
+      </c>
+      <c r="P2" t="n">
+        <v>82.30551</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>290.18849</v>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>74.69171</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.26799</v>
+      </c>
+      <c r="U2" t="n">
+        <v>195.87325</v>
+      </c>
+      <c r="V2" t="n">
+        <v>116.91355</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.78998</v>
+      </c>
+      <c r="X2" t="n">
+        <v>422.04589</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>26.53118</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.34017</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>459.70722</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>29.29067</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>2.77245</v>
+      </c>
       <c r="AG2" t="n">
-        <v>405.3</v>
+        <v>1141.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>57.9725</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>555.4194</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>49.6404</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1346.9916</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.1059</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2138</v>
+      </c>
+      <c r="M3" t="n">
+        <v>56.5936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7006</v>
+      </c>
+      <c r="O3" t="n">
+        <v>178.9179</v>
+      </c>
+      <c r="P3" t="n">
+        <v>120.2053</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>568.5253</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>85.66670000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9.2242</v>
+      </c>
+      <c r="U3" t="n">
+        <v>320.9368</v>
+      </c>
+      <c r="V3" t="n">
+        <v>226.046</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.7025</v>
+      </c>
+      <c r="X3" t="n">
+        <v>561.8938000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18.8198</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>40.2191</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>621.6353</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>47.4542</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>2.1919</v>
+      </c>
       <c r="AG3" t="n">
-        <v>464</v>
+        <v>1846.8463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.86869</v>
+        <v>0.27118</v>
       </c>
       <c r="C4" t="n">
-        <v>17.15139</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>28.10708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.01286</v>
+      </c>
       <c r="E4" t="n">
-        <v>158.68093</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>800.73628</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.65758</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H4" t="n">
-        <v>1.59896</v>
+        <v>87.60608000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>421.95275</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>1685.83773</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2562</v>
+      </c>
       <c r="K4" t="n">
-        <v>6.02222</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>28.62084</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.41969</v>
+      </c>
       <c r="M4" t="n">
-        <v>21.51656</v>
+        <v>48.3606</v>
       </c>
       <c r="N4" t="n">
-        <v>0.56224</v>
+        <v>0.88168</v>
       </c>
       <c r="O4" t="n">
-        <v>75.87689</v>
+        <v>169.15112</v>
       </c>
       <c r="P4" t="n">
-        <v>52.29457</v>
+        <v>133.87832</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.70315</v>
+        <v>829.35712</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>46.41067</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>122.09672</v>
+      </c>
+      <c r="T4" t="n">
+        <v>13.01496</v>
+      </c>
       <c r="U4" t="n">
-        <v>111.01072</v>
+        <v>381.01523</v>
       </c>
       <c r="V4" t="n">
-        <v>64.60005</v>
+        <v>240.24597</v>
       </c>
       <c r="W4" t="n">
-        <v>0.18316</v>
+        <v>2.17541</v>
       </c>
       <c r="X4" t="n">
-        <v>187.41934</v>
+        <v>615.94294</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.20549</v>
+        <v>29.2484</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.21036</v>
+        <v>26.66501</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.01835</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
+        <v>674.03176</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2.07051</v>
+      </c>
       <c r="AC4" t="n">
-        <v>1.68381</v>
+        <v>1.83288</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.46147</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
+        <v>40.80332</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.49462</v>
+      </c>
       <c r="AF4" t="n">
-        <v>3.97045</v>
+        <v>1.77546</v>
       </c>
       <c r="AG4" t="n">
-        <v>608.8</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.77047</v>
+      </c>
       <c r="C5" t="n">
-        <v>30.58604</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>43.60542</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22542</v>
+      </c>
       <c r="E5" t="n">
-        <v>281.87137</v>
+        <v>981.76887</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>2.99054</v>
+        <v>1.84906</v>
       </c>
       <c r="I5" t="n">
-        <v>832.76037</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1987.98689</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.46073</v>
+      </c>
       <c r="K5" t="n">
-        <v>8.317119999999999</v>
+        <v>36.50373</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>47.74375</v>
+        <v>22.44562</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08248999999999999</v>
+        <v>0.12287</v>
       </c>
       <c r="O5" t="n">
-        <v>113.01603</v>
+        <v>215.20303</v>
       </c>
       <c r="P5" t="n">
-        <v>82.30551</v>
+        <v>169.47885</v>
       </c>
       <c r="Q5" t="n">
-        <v>290.18849</v>
+        <v>1018.2726</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>74.69171</v>
+        <v>62.46894</v>
       </c>
       <c r="T5" t="n">
-        <v>4.26799</v>
+        <v>11.86002</v>
       </c>
       <c r="U5" t="n">
-        <v>195.87325</v>
+        <v>342.67191</v>
       </c>
       <c r="V5" t="n">
-        <v>116.91355</v>
+        <v>268.34295</v>
       </c>
       <c r="W5" t="n">
-        <v>3.78998</v>
+        <v>1.66614</v>
       </c>
       <c r="X5" t="n">
-        <v>422.04589</v>
+        <v>842.85844</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.53118</v>
+        <v>10.39262</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.34017</v>
+        <v>45.54645</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.70722</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+        <v>900.46365</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.79683</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.36008</v>
+      </c>
       <c r="AD5" t="n">
-        <v>29.29067</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+        <v>41.66706</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.3361</v>
+      </c>
       <c r="AF5" t="n">
-        <v>2.77245</v>
+        <v>1.13199</v>
       </c>
       <c r="AG5" t="n">
-        <v>1141.6</v>
+        <v>2545.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.98665</v>
+      </c>
       <c r="C6" t="n">
-        <v>57.9725</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>53.80887</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.6108</v>
+      </c>
       <c r="E6" t="n">
-        <v>555.4194</v>
+        <v>1215.88597</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>49.6404</v>
+        <v>5.47326</v>
       </c>
       <c r="I6" t="n">
-        <v>1346.9916</v>
+        <v>2508.58195</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1374</v>
+        <v>0.2069</v>
       </c>
       <c r="K6" t="n">
-        <v>13.1059</v>
+        <v>61.06359</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2138</v>
+        <v>2.93933</v>
       </c>
       <c r="M6" t="n">
-        <v>56.5936</v>
+        <v>24.23465</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7006</v>
+        <v>0.50364</v>
       </c>
       <c r="O6" t="n">
-        <v>178.9179</v>
+        <v>219.85602</v>
       </c>
       <c r="P6" t="n">
-        <v>120.2053</v>
+        <v>159.94606</v>
       </c>
       <c r="Q6" t="n">
-        <v>568.5253</v>
+        <v>1276.94956</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>85.66670000000001</v>
+        <v>128.63333</v>
       </c>
       <c r="T6" t="n">
-        <v>9.2242</v>
+        <v>18.68493</v>
       </c>
       <c r="U6" t="n">
-        <v>320.9368</v>
+        <v>387.88012</v>
       </c>
       <c r="V6" t="n">
-        <v>226.046</v>
+        <v>240.56186</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7025</v>
+        <v>2.09961</v>
       </c>
       <c r="X6" t="n">
-        <v>561.8938000000001</v>
+        <v>1083.87252</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.8198</v>
+        <v>13.06173</v>
       </c>
       <c r="Z6" t="n">
-        <v>40.2191</v>
+        <v>36.44493</v>
       </c>
       <c r="AA6" t="n">
-        <v>621.6353</v>
+        <v>1135.47879</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3512</v>
+        <v>3.14623</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5998</v>
+        <v>2.2183</v>
       </c>
       <c r="AD6" t="n">
-        <v>47.4542</v>
+        <v>58.72391</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.1919</v>
+        <v>2.35725</v>
       </c>
       <c r="AG6" t="n">
-        <v>1846.8463</v>
+        <v>3116.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.27118</v>
+        <v>2.4389</v>
       </c>
       <c r="C7" t="n">
-        <v>28.10708</v>
+        <v>62.6086</v>
       </c>
       <c r="D7" t="n">
-        <v>6.01286</v>
+        <v>15.1595</v>
       </c>
       <c r="E7" t="n">
-        <v>800.73628</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5.65758</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9</v>
-      </c>
+        <v>1073.9577</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>87.60608000000001</v>
+        <v>6.0845</v>
       </c>
       <c r="I7" t="n">
-        <v>1685.83773</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2562</v>
-      </c>
+        <v>2093.5052</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>28.62084</v>
+        <v>61.7179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.41969</v>
+        <v>2.2696</v>
       </c>
       <c r="M7" t="n">
-        <v>48.3606</v>
+        <v>26.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0.88168</v>
+        <v>0.4087</v>
       </c>
       <c r="O7" t="n">
-        <v>169.15112</v>
+        <v>229.8513</v>
       </c>
       <c r="P7" t="n">
-        <v>133.87832</v>
+        <v>149.2357</v>
       </c>
       <c r="Q7" t="n">
-        <v>829.35712</v>
+        <v>1135.6756</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>122.09672</v>
+        <v>94.777</v>
       </c>
       <c r="T7" t="n">
-        <v>13.01496</v>
+        <v>17.0967</v>
       </c>
       <c r="U7" t="n">
-        <v>381.01523</v>
+        <v>370.6804</v>
       </c>
       <c r="V7" t="n">
-        <v>240.24597</v>
+        <v>258.8066</v>
       </c>
       <c r="W7" t="n">
-        <v>2.17541</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>615.94294</v>
+        <v>854.4571</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.2484</v>
+        <v>12.2974</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.66501</v>
+        <v>17.4592</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.03176</v>
+        <v>884.2228</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.07051</v>
+        <v>2.2696</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.83288</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>40.80332</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.49462</v>
-      </c>
+        <v>37.5082</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>1.77546</v>
+        <v>1.2262</v>
       </c>
       <c r="AG7" t="n">
-        <v>2236</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.77047</v>
+        <v>0.3359</v>
       </c>
       <c r="C8" t="n">
-        <v>43.60542</v>
+        <v>58.2222</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22542</v>
+        <v>3.3746</v>
       </c>
       <c r="E8" t="n">
-        <v>981.76887</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>1590.9259</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.6458</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1.84906</v>
+        <v>0.2235</v>
       </c>
       <c r="I8" t="n">
-        <v>1987.98689</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.46073</v>
-      </c>
+        <v>2538.7362</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>36.50373</v>
+        <v>55.1552</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>22.44562</v>
+        <v>22.3932</v>
       </c>
       <c r="N8" t="n">
-        <v>0.12287</v>
+        <v>0.3595</v>
       </c>
       <c r="O8" t="n">
-        <v>215.20303</v>
+        <v>220.3048</v>
       </c>
       <c r="P8" t="n">
-        <v>169.47885</v>
+        <v>158.0127</v>
       </c>
       <c r="Q8" t="n">
-        <v>1018.2726</v>
+        <v>1646.0809</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>62.46894</v>
+        <v>82.02930000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>11.86002</v>
+        <v>14.2035</v>
       </c>
       <c r="U8" t="n">
-        <v>342.67191</v>
+        <v>490.6749</v>
       </c>
       <c r="V8" t="n">
-        <v>268.34295</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.66614</v>
-      </c>
+        <v>379.7963</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>842.85844</v>
+        <v>783.5231</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.39262</v>
+        <v>12.7741</v>
       </c>
       <c r="Z8" t="n">
-        <v>45.54645</v>
+        <v>22.4622</v>
       </c>
       <c r="AA8" t="n">
-        <v>900.46365</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.79683</v>
-      </c>
+        <v>818.763</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>1.36008</v>
+        <v>0.5417999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>41.66706</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.3361</v>
-      </c>
+        <v>50.5583</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>1.13199</v>
+        <v>0.1763</v>
       </c>
       <c r="AG8" t="n">
-        <v>2545.9</v>
+        <v>3249.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.98665</v>
+        <v>0.666</v>
       </c>
       <c r="C9" t="n">
-        <v>53.80887</v>
+        <v>151.307</v>
       </c>
       <c r="D9" t="n">
-        <v>2.6108</v>
+        <v>3.668</v>
       </c>
       <c r="E9" t="n">
-        <v>1215.88597</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>1084.918</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.266</v>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>5.47326</v>
+        <v>0.586</v>
       </c>
       <c r="I9" t="n">
-        <v>2508.58195</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2069</v>
-      </c>
+        <v>2175.703</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>61.06359</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.93933</v>
-      </c>
+        <v>58.306</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>24.23465</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.50364</v>
-      </c>
+        <v>28.736</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>219.85602</v>
+        <v>383.307</v>
       </c>
       <c r="P9" t="n">
-        <v>159.94606</v>
+        <v>227.666</v>
       </c>
       <c r="Q9" t="n">
-        <v>1276.94956</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>1143.225</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.184</v>
+      </c>
       <c r="S9" t="n">
-        <v>128.63333</v>
+        <v>81.003</v>
       </c>
       <c r="T9" t="n">
-        <v>18.68493</v>
+        <v>2.782</v>
       </c>
       <c r="U9" t="n">
-        <v>387.88012</v>
+        <v>430.793</v>
       </c>
       <c r="V9" t="n">
-        <v>240.56186</v>
+        <v>342.557</v>
       </c>
       <c r="W9" t="n">
-        <v>2.09961</v>
+        <v>2.19</v>
       </c>
       <c r="X9" t="n">
-        <v>1083.87252</v>
+        <v>935.162</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.06173</v>
+        <v>2.266</v>
       </c>
       <c r="Z9" t="n">
-        <v>36.44493</v>
+        <v>16.993</v>
       </c>
       <c r="AA9" t="n">
-        <v>1135.47879</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>3.14623</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2.2183</v>
-      </c>
+        <v>956.611</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>58.72391</v>
+        <v>45.927</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>2.35725</v>
+        <v>0.581</v>
       </c>
       <c r="AG9" t="n">
-        <v>3116.3</v>
+        <v>2989.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.4389</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>62.6086</v>
+        <v>130.1465</v>
       </c>
       <c r="D10" t="n">
-        <v>15.1595</v>
+        <v>8.2121</v>
       </c>
       <c r="E10" t="n">
-        <v>1073.9577</v>
+        <v>1047.8705</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.0845</v>
+        <v>0.2153</v>
       </c>
       <c r="I10" t="n">
-        <v>2093.5052</v>
+        <v>2158.1863</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>61.7179</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.2696</v>
-      </c>
+        <v>66.0433</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>26.01</v>
+        <v>24.6091</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4087</v>
+        <v>1.8079</v>
       </c>
       <c r="O10" t="n">
-        <v>229.8513</v>
+        <v>338.1297</v>
       </c>
       <c r="P10" t="n">
-        <v>149.2357</v>
+        <v>197.9631</v>
       </c>
       <c r="Q10" t="n">
-        <v>1135.6756</v>
+        <v>1113.9138</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>94.777</v>
+        <v>96.43559999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>17.0967</v>
+        <v>35.1872</v>
       </c>
       <c r="U10" t="n">
-        <v>370.6804</v>
+        <v>405.8353</v>
       </c>
       <c r="V10" t="n">
-        <v>258.8066</v>
+        <v>274.1668</v>
       </c>
       <c r="W10" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.6491</v>
       </c>
       <c r="X10" t="n">
-        <v>854.4571</v>
+        <v>874.2117</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.2974</v>
+        <v>1.7147</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.4592</v>
+        <v>29.266</v>
       </c>
       <c r="AA10" t="n">
-        <v>884.2228</v>
+        <v>905.8415</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.2696</v>
+        <v>3.4241</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.1611</v>
       </c>
       <c r="AD10" t="n">
-        <v>37.5082</v>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+        <v>108.5833</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3.4241</v>
+      </c>
       <c r="AF10" t="n">
-        <v>1.2262</v>
+        <v>1.4381</v>
       </c>
       <c r="AG10" t="n">
-        <v>2694</v>
+        <v>2902.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3359</v>
+        <v>8.0137</v>
       </c>
       <c r="C11" t="n">
-        <v>58.2222</v>
+        <v>172.488</v>
       </c>
       <c r="D11" t="n">
-        <v>3.3746</v>
+        <v>13.5992</v>
       </c>
       <c r="E11" t="n">
-        <v>1590.9259</v>
+        <v>1023.0181</v>
       </c>
       <c r="F11" t="n">
-        <v>14.6458</v>
+        <v>1.2851</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.2235</v>
+        <v>1.0366</v>
       </c>
       <c r="I11" t="n">
-        <v>2538.7362</v>
+        <v>2346.8052</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>55.1552</v>
+        <v>156.3923</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>22.3932</v>
+        <v>28.3128</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3595</v>
+        <v>0.5289</v>
       </c>
       <c r="O11" t="n">
-        <v>220.3048</v>
+        <v>473.7777</v>
       </c>
       <c r="P11" t="n">
-        <v>158.0127</v>
+        <v>279.1479</v>
       </c>
       <c r="Q11" t="n">
-        <v>1646.0809</v>
+        <v>1179.4107</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>82.02930000000001</v>
+        <v>75.0288</v>
       </c>
       <c r="T11" t="n">
-        <v>14.2035</v>
+        <v>24.6287</v>
       </c>
       <c r="U11" t="n">
-        <v>490.6749</v>
+        <v>352.9955</v>
       </c>
       <c r="V11" t="n">
-        <v>379.7963</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>252.0528</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1306</v>
+      </c>
       <c r="X11" t="n">
-        <v>783.5231</v>
+        <v>993.1638</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.7741</v>
+        <v>2.4033</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.4622</v>
+        <v>27.2838</v>
       </c>
       <c r="AA11" t="n">
-        <v>818.763</v>
+        <v>1022.9814</v>
       </c>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
-        <v>0.5417999999999999</v>
-      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>50.5583</v>
+        <v>114.6315</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>0.1763</v>
+        <v>0.4325</v>
       </c>
       <c r="AG11" t="n">
-        <v>3249.7</v>
+        <v>3173.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.666</v>
+        <v>9.3703</v>
       </c>
       <c r="C12" t="n">
-        <v>151.307</v>
+        <v>179.8126</v>
       </c>
       <c r="D12" t="n">
-        <v>3.668</v>
+        <v>5.302</v>
       </c>
       <c r="E12" t="n">
-        <v>1084.918</v>
+        <v>818.6203</v>
       </c>
       <c r="F12" t="n">
-        <v>4.266</v>
+        <v>1.8535</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>0.586</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>2175.703</v>
+        <v>2229.1946</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>58.306</v>
+        <v>235.8674</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>28.736</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>37.1615</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.2157</v>
+      </c>
       <c r="O12" t="n">
-        <v>383.307</v>
+        <v>627.4313</v>
       </c>
       <c r="P12" t="n">
-        <v>227.666</v>
+        <v>426.7307</v>
       </c>
       <c r="Q12" t="n">
-        <v>1143.225</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.184</v>
-      </c>
+        <v>1054.4878</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>81.003</v>
+        <v>65.6118</v>
       </c>
       <c r="T12" t="n">
-        <v>2.782</v>
+        <v>5.865</v>
       </c>
       <c r="U12" t="n">
-        <v>430.793</v>
+        <v>421.5153</v>
       </c>
       <c r="V12" t="n">
-        <v>342.557</v>
+        <v>348.185</v>
       </c>
       <c r="W12" t="n">
-        <v>2.19</v>
+        <v>0.4353</v>
       </c>
       <c r="X12" t="n">
-        <v>935.162</v>
+        <v>1085.2521</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.266</v>
+        <v>4.7624</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.993</v>
+        <v>11.2802</v>
       </c>
       <c r="AA12" t="n">
-        <v>956.611</v>
+        <v>1101.7301</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>45.927</v>
+        <v>35.7692</v>
       </c>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="n">
-        <v>0.581</v>
-      </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>2989.8</v>
+        <v>3278.1408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16.9696</v>
+      </c>
       <c r="C13" t="n">
-        <v>130.1465</v>
+        <v>181.4575</v>
       </c>
       <c r="D13" t="n">
-        <v>8.2121</v>
+        <v>12.6457</v>
       </c>
       <c r="E13" t="n">
-        <v>1047.8705</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>872.169</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.1087</v>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>0.2153</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>2158.1863</v>
+        <v>2408.539</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>66.0433</v>
+        <v>313.8388</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>24.6091</v>
+        <v>60.0775</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8079</v>
+        <v>4.1715</v>
       </c>
       <c r="O13" t="n">
-        <v>338.1297</v>
+        <v>778.0169</v>
       </c>
       <c r="P13" t="n">
-        <v>197.9631</v>
+        <v>562.7726</v>
       </c>
       <c r="Q13" t="n">
-        <v>1113.9138</v>
+        <v>1186.0078</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>96.43559999999999</v>
+        <v>71.5887</v>
       </c>
       <c r="T13" t="n">
-        <v>35.1872</v>
+        <v>37.4073</v>
       </c>
       <c r="U13" t="n">
-        <v>405.8353</v>
+        <v>496.4728</v>
       </c>
       <c r="V13" t="n">
-        <v>274.1668</v>
+        <v>382.3681</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6491</v>
+        <v>0.3554</v>
       </c>
       <c r="X13" t="n">
-        <v>874.2117</v>
+        <v>1127.0521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.7147</v>
+        <v>10.1954</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.266</v>
+        <v>6.7719</v>
       </c>
       <c r="AA13" t="n">
-        <v>905.8415</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>3.4241</v>
-      </c>
+        <v>1144.3749</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>0.1611</v>
+        <v>0.203</v>
       </c>
       <c r="AD13" t="n">
-        <v>108.5833</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3.4241</v>
-      </c>
+        <v>17.8608</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>1.4381</v>
+        <v>0.0149</v>
       </c>
       <c r="AG13" t="n">
-        <v>2902.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8.0137</v>
-      </c>
-      <c r="C14" t="n">
-        <v>172.488</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.5992</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1023.0181</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.2851</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1.0366</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2346.8052</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>156.3923</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>28.3128</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.5289</v>
-      </c>
-      <c r="O14" t="n">
-        <v>473.7777</v>
-      </c>
-      <c r="P14" t="n">
-        <v>279.1479</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1179.4107</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>75.0288</v>
-      </c>
-      <c r="T14" t="n">
-        <v>24.6287</v>
-      </c>
-      <c r="U14" t="n">
-        <v>352.9955</v>
-      </c>
-      <c r="V14" t="n">
-        <v>252.0528</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.1306</v>
-      </c>
-      <c r="X14" t="n">
-        <v>993.1638</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2.4033</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>27.2838</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1022.9814</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>114.6315</v>
-      </c>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="n">
-        <v>0.4325</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3173.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9.3703</v>
-      </c>
-      <c r="C15" t="n">
-        <v>179.8126</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.302</v>
-      </c>
-      <c r="E15" t="n">
-        <v>818.6203</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.8535</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2229.1946</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>235.8674</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>37.1615</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.2157</v>
-      </c>
-      <c r="O15" t="n">
-        <v>627.4313</v>
-      </c>
-      <c r="P15" t="n">
-        <v>426.7307</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1054.4878</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>65.6118</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5.865</v>
-      </c>
-      <c r="U15" t="n">
-        <v>421.5153</v>
-      </c>
-      <c r="V15" t="n">
-        <v>348.185</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.4353</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1085.2521</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4.7624</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11.2802</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1101.7301</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>35.7692</v>
-      </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>3278.1408</v>
+        <v>3683.0286</v>
       </c>
     </row>
   </sheetData>
